--- a/CRIS JANEIRO.xlsx
+++ b/CRIS JANEIRO.xlsx
@@ -1,21 +1,41 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
+    <workbookView xWindow="240" yWindow="108" windowWidth="14808" windowHeight="8016"/>
   </bookViews>
   <sheets>
-    <sheet name="Plan1" sheetId="1" r:id="rId1"/>
+    <sheet name="Planilha1" sheetId="2" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="122211" fullCalcOnLoad="1"/>
+  <calcPr calcId="152511"/>
 </workbook>
 </file>
 
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
+  <si>
+    <t>TOTAL --&gt;</t>
+  </si>
+  <si>
+    <t>VALOR</t>
+  </si>
+  <si>
+    <t>CORRIDAS</t>
+  </si>
+  <si>
+    <t>DIA</t>
+  </si>
+</sst>
+</file>
+
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <numFmts count="1">
+    <numFmt numFmtId="164" formatCode="&quot;R$&quot;\ #,##0.00"/>
+  </numFmts>
+  <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -24,15 +44,21 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-0.14999847407452621"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -40,25 +66,78 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="16" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="16" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleMedium9"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Tema do Office">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Escritório">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -96,9 +175,9 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Escritório">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -133,7 +212,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -168,7 +247,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Escritório">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -341,13 +420,200 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:C23"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B9" sqref="B9"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
-  <sheetData/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="15.44140625" style="3" customWidth="1"/>
+    <col min="2" max="2" width="18.33203125" style="2" customWidth="1"/>
+    <col min="3" max="3" width="24.109375" style="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A1" s="10" t="s">
+        <v>3</v>
+      </c>
+      <c r="B1" s="9" t="s">
+        <v>2</v>
+      </c>
+      <c r="C1" s="8" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A2" s="4">
+        <v>44942</v>
+      </c>
+      <c r="B2" s="2">
+        <v>0</v>
+      </c>
+      <c r="C2" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A3" s="4">
+        <v>44943</v>
+      </c>
+      <c r="B3" s="2">
+        <v>1</v>
+      </c>
+      <c r="C3" s="1">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A4" s="4">
+        <v>44944</v>
+      </c>
+      <c r="B4" s="2">
+        <v>3</v>
+      </c>
+      <c r="C4" s="1">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A5" s="4">
+        <v>44945</v>
+      </c>
+      <c r="B5" s="2">
+        <v>0</v>
+      </c>
+      <c r="C5" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A6" s="4">
+        <v>44946</v>
+      </c>
+      <c r="B6" s="2">
+        <v>2</v>
+      </c>
+      <c r="C6" s="1">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A7" s="4">
+        <v>44947</v>
+      </c>
+      <c r="B7" s="2">
+        <v>1</v>
+      </c>
+      <c r="C7" s="1">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A8" s="4">
+        <v>44948</v>
+      </c>
+      <c r="B8" s="2">
+        <v>1</v>
+      </c>
+      <c r="C8" s="1">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A9" s="4">
+        <v>44949</v>
+      </c>
+      <c r="B9" s="2">
+        <v>1</v>
+      </c>
+      <c r="C9" s="1">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A10" s="4">
+        <v>44950</v>
+      </c>
+      <c r="B10" s="2">
+        <v>1</v>
+      </c>
+      <c r="C10" s="1">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A11" s="4">
+        <v>44951</v>
+      </c>
+      <c r="B11" s="2">
+        <v>1</v>
+      </c>
+      <c r="C11" s="1">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A12" s="4">
+        <v>44952</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A13" s="4">
+        <v>44953</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A14" s="4">
+        <v>44954</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A15" s="4">
+        <v>44955</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A16" s="4">
+        <v>44956</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A17" s="4">
+        <v>44957</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A18" s="7" t="s">
+        <v>0</v>
+      </c>
+      <c r="B18" s="6">
+        <f>SUM(B2:B17)</f>
+        <v>11</v>
+      </c>
+      <c r="C18" s="5">
+        <f>SUM(C2:C17)</f>
+        <v>69</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A19" s="4"/>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A20" s="4"/>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A21" s="4"/>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A22" s="4"/>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A23" s="4"/>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/CRIS JANEIRO.xlsx
+++ b/CRIS JANEIRO.xlsx
@@ -1,15 +1,29 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="25928"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{052B2799-1FB0-4754-A9C9-924D2027E80D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="108" windowWidth="14808" windowHeight="8016"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13020" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Planilha1" sheetId="2" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
@@ -31,7 +45,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="&quot;R$&quot;\ #,##0.00"/>
   </numFmts>
@@ -137,7 +151,7 @@
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
 <a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Tema do Office">
   <a:themeElements>
-    <a:clrScheme name="Escritório">
+    <a:clrScheme name="Office">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -175,7 +189,7 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Escritório">
+    <a:fontScheme name="Office">
       <a:majorFont>
         <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -210,6 +224,23 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
@@ -245,9 +276,26 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Escritório">
+    <a:fmtScheme name="Office">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -420,21 +468,21 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:C23"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B9" sqref="B9"/>
+      <selection activeCell="F16" sqref="F16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="15.44140625" style="3" customWidth="1"/>
-    <col min="2" max="2" width="18.33203125" style="2" customWidth="1"/>
-    <col min="3" max="3" width="24.109375" style="1" customWidth="1"/>
+    <col min="1" max="1" width="15.42578125" style="3" customWidth="1"/>
+    <col min="2" max="2" width="18.28515625" style="2" customWidth="1"/>
+    <col min="3" max="3" width="24.140625" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" s="10" t="s">
         <v>3</v>
       </c>
@@ -445,7 +493,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" s="4">
         <v>44942</v>
       </c>
@@ -456,7 +504,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" s="4">
         <v>44943</v>
       </c>
@@ -467,7 +515,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" s="4">
         <v>44944</v>
       </c>
@@ -478,7 +526,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" s="4">
         <v>44945</v>
       </c>
@@ -489,7 +537,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6" s="4">
         <v>44946</v>
       </c>
@@ -500,7 +548,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7" s="4">
         <v>44947</v>
       </c>
@@ -511,7 +559,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A8" s="4">
         <v>44948</v>
       </c>
@@ -522,7 +570,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A9" s="4">
         <v>44949</v>
       </c>
@@ -533,7 +581,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A10" s="4">
         <v>44950</v>
       </c>
@@ -544,7 +592,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A11" s="4">
         <v>44951</v>
       </c>
@@ -555,62 +603,74 @@
         <v>7</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A12" s="4">
         <v>44952</v>
       </c>
-    </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="B12" s="2">
+        <v>1</v>
+      </c>
+      <c r="C12" s="1">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A13" s="4">
         <v>44953</v>
       </c>
-    </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="B13" s="2">
+        <v>1</v>
+      </c>
+      <c r="C13" s="1">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A14" s="4">
         <v>44954</v>
       </c>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A15" s="4">
         <v>44955</v>
       </c>
     </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A16" s="4">
         <v>44956</v>
       </c>
     </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A17" s="4">
         <v>44957</v>
       </c>
     </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A18" s="7" t="s">
         <v>0</v>
       </c>
       <c r="B18" s="6">
         <f>SUM(B2:B17)</f>
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="C18" s="5">
         <f>SUM(C2:C17)</f>
-        <v>69</v>
-      </c>
-    </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.3">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A19" s="4"/>
     </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A20" s="4"/>
     </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A21" s="4"/>
     </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A22" s="4"/>
     </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A23" s="4"/>
     </row>
   </sheetData>

--- a/CRIS JANEIRO.xlsx
+++ b/CRIS JANEIRO.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="25928"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{052B2799-1FB0-4754-A9C9-924D2027E80D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13020" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13020"/>
   </bookViews>
   <sheets>
     <sheet name="Planilha1" sheetId="2" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="152511"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
@@ -45,7 +44,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="&quot;R$&quot;\ #,##0.00"/>
   </numFmts>
@@ -151,7 +150,7 @@
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
 <a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Tema do Office">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Escritório">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -189,7 +188,7 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Escritório">
       <a:majorFont>
         <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -224,23 +223,6 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
@@ -276,26 +258,9 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Escritório">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -468,21 +433,21 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C23"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="F16" sqref="F16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="15.42578125" style="3" customWidth="1"/>
-    <col min="2" max="2" width="18.28515625" style="2" customWidth="1"/>
-    <col min="3" max="3" width="24.140625" style="1" customWidth="1"/>
+    <col min="1" max="1" width="15.44140625" style="3" customWidth="1"/>
+    <col min="2" max="2" width="18.33203125" style="2" customWidth="1"/>
+    <col min="3" max="3" width="24.109375" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1" s="10" t="s">
         <v>3</v>
       </c>
@@ -493,7 +458,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A2" s="4">
         <v>44942</v>
       </c>
@@ -504,7 +469,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A3" s="4">
         <v>44943</v>
       </c>
@@ -515,7 +480,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A4" s="4">
         <v>44944</v>
       </c>
@@ -526,7 +491,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A5" s="4">
         <v>44945</v>
       </c>
@@ -537,7 +502,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A6" s="4">
         <v>44946</v>
       </c>
@@ -548,7 +513,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A7" s="4">
         <v>44947</v>
       </c>
@@ -559,7 +524,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A8" s="4">
         <v>44948</v>
       </c>
@@ -570,7 +535,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A9" s="4">
         <v>44949</v>
       </c>
@@ -581,7 +546,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A10" s="4">
         <v>44950</v>
       </c>
@@ -592,7 +557,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A11" s="4">
         <v>44951</v>
       </c>
@@ -603,7 +568,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A12" s="4">
         <v>44952</v>
       </c>
@@ -614,7 +579,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A13" s="4">
         <v>44953</v>
       </c>
@@ -625,52 +590,76 @@
         <v>7</v>
       </c>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A14" s="4">
         <v>44954</v>
       </c>
-    </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B14" s="2">
+        <v>2</v>
+      </c>
+      <c r="C14" s="1">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A15" s="4">
         <v>44955</v>
       </c>
-    </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B15" s="2">
+        <v>2</v>
+      </c>
+      <c r="C15" s="1">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A16" s="4">
         <v>44956</v>
       </c>
-    </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B16" s="2">
+        <v>1</v>
+      </c>
+      <c r="C16" s="1">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A17" s="4">
         <v>44957</v>
       </c>
-    </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B17" s="2">
+        <v>1</v>
+      </c>
+      <c r="C17" s="1">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A18" s="7" t="s">
         <v>0</v>
       </c>
       <c r="B18" s="6">
         <f>SUM(B2:B17)</f>
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="C18" s="5">
         <f>SUM(C2:C17)</f>
-        <v>83</v>
-      </c>
-    </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A19" s="4"/>
     </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A20" s="4"/>
     </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A21" s="4"/>
     </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A22" s="4"/>
     </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A23" s="4"/>
     </row>
   </sheetData>

--- a/CRIS JANEIRO.xlsx
+++ b/CRIS JANEIRO.xlsx
@@ -436,8 +436,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C23"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F16" sqref="F16"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="C18" sqref="C18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -628,10 +628,10 @@
         <v>44957</v>
       </c>
       <c r="B17" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C17" s="1">
-        <v>7</v>
+        <v>0</v>
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.3">
@@ -640,11 +640,11 @@
       </c>
       <c r="B18" s="6">
         <f>SUM(B2:B17)</f>
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C18" s="5">
         <f>SUM(C2:C17)</f>
-        <v>117</v>
+        <v>110</v>
       </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.3">

--- a/CRIS JANEIRO.xlsx
+++ b/CRIS JANEIRO.xlsx
@@ -1,33 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="26026"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7ED4182F-EA51-4AAB-B717-58EB829C80AF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13020"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13020" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Planilha1" sheetId="2" r:id="rId1"/>
+    <sheet name="Janeiro" sheetId="2" r:id="rId1"/>
+    <sheet name="Fervereiro" sheetId="3" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="152511"/>
-  <extLst>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
-      </xcalcf:calcFeatures>
-    </ext>
-  </extLst>
+  <calcPr calcId="191029"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="4">
   <si>
     <t>TOTAL --&gt;</t>
   </si>
@@ -44,7 +33,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="&quot;R$&quot;\ #,##0.00"/>
   </numFmts>
@@ -57,7 +46,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -67,6 +56,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="0" tint="-0.14999847407452621"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.59999389629810485"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -81,16 +76,16 @@
     </border>
     <border>
       <left style="thin">
-        <color rgb="FF000000"/>
+        <color indexed="64"/>
       </left>
       <right style="thin">
-        <color rgb="FF000000"/>
+        <color indexed="64"/>
       </right>
       <top style="thin">
-        <color rgb="FF000000"/>
+        <color indexed="64"/>
       </top>
       <bottom style="thin">
-        <color rgb="FF000000"/>
+        <color indexed="64"/>
       </bottom>
       <diagonal/>
     </border>
@@ -98,7 +93,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -112,22 +107,25 @@
     <xf numFmtId="16" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="16" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="1" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="16" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="16" fontId="0" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="0" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -150,7 +148,7 @@
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
 <a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Tema do Office">
   <a:themeElements>
-    <a:clrScheme name="Escritório">
+    <a:clrScheme name="Office">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -188,7 +186,7 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Escritório">
+    <a:fontScheme name="Office">
       <a:majorFont>
         <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -223,6 +221,23 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
@@ -258,9 +273,26 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Escritório">
+    <a:fmtScheme name="Office">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -433,236 +465,369 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:C23"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="C18" sqref="C18"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H11" sqref="H11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="15.44140625" style="3" customWidth="1"/>
-    <col min="2" max="2" width="18.33203125" style="2" customWidth="1"/>
-    <col min="3" max="3" width="24.109375" style="1" customWidth="1"/>
+    <col min="1" max="1" width="20.7109375" style="3" customWidth="1"/>
+    <col min="2" max="2" width="20.7109375" style="2" customWidth="1"/>
+    <col min="3" max="3" width="20.7109375" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A1" s="10" t="s">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="B1" s="9" t="s">
+      <c r="B1" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="C1" s="8" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A2" s="4">
+      <c r="C1" s="7" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A2" s="9">
         <v>44942</v>
       </c>
-      <c r="B2" s="2">
+      <c r="B2" s="10">
         <v>0</v>
       </c>
-      <c r="C2" s="1">
+      <c r="C2" s="11">
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A3" s="4">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A3" s="9">
         <v>44943</v>
       </c>
-      <c r="B3" s="2">
-        <v>1</v>
-      </c>
-      <c r="C3" s="1">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A4" s="4">
+      <c r="B3" s="10">
+        <v>1</v>
+      </c>
+      <c r="C3" s="11">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A4" s="9">
         <v>44944</v>
       </c>
-      <c r="B4" s="2">
+      <c r="B4" s="10">
         <v>3</v>
       </c>
-      <c r="C4" s="1">
+      <c r="C4" s="11">
         <v>17</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A5" s="4">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A5" s="9">
         <v>44945</v>
       </c>
-      <c r="B5" s="2">
+      <c r="B5" s="10">
         <v>0</v>
       </c>
-      <c r="C5" s="1">
+      <c r="C5" s="11">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A6" s="4">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A6" s="9">
         <v>44946</v>
       </c>
-      <c r="B6" s="2">
+      <c r="B6" s="10">
         <v>2</v>
       </c>
-      <c r="C6" s="1">
+      <c r="C6" s="11">
         <v>10</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A7" s="4">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A7" s="9">
         <v>44947</v>
       </c>
-      <c r="B7" s="2">
-        <v>1</v>
-      </c>
-      <c r="C7" s="1">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A8" s="4">
+      <c r="B7" s="10">
+        <v>1</v>
+      </c>
+      <c r="C7" s="11">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A8" s="9">
         <v>44948</v>
       </c>
-      <c r="B8" s="2">
-        <v>1</v>
-      </c>
-      <c r="C8" s="1">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A9" s="4">
+      <c r="B8" s="10">
+        <v>1</v>
+      </c>
+      <c r="C8" s="11">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A9" s="9">
         <v>44949</v>
       </c>
-      <c r="B9" s="2">
-        <v>1</v>
-      </c>
-      <c r="C9" s="1">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A10" s="4">
+      <c r="B9" s="10">
+        <v>1</v>
+      </c>
+      <c r="C9" s="11">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A10" s="9">
         <v>44950</v>
       </c>
-      <c r="B10" s="2">
-        <v>1</v>
-      </c>
-      <c r="C10" s="1">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A11" s="4">
+      <c r="B10" s="10">
+        <v>1</v>
+      </c>
+      <c r="C10" s="11">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A11" s="9">
         <v>44951</v>
       </c>
-      <c r="B11" s="2">
-        <v>1</v>
-      </c>
-      <c r="C11" s="1">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A12" s="4">
+      <c r="B11" s="10">
+        <v>1</v>
+      </c>
+      <c r="C11" s="11">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A12" s="9">
         <v>44952</v>
       </c>
-      <c r="B12" s="2">
-        <v>1</v>
-      </c>
-      <c r="C12" s="1">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A13" s="4">
+      <c r="B12" s="10">
+        <v>1</v>
+      </c>
+      <c r="C12" s="11">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A13" s="9">
         <v>44953</v>
       </c>
-      <c r="B13" s="2">
-        <v>1</v>
-      </c>
-      <c r="C13" s="1">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A14" s="4">
+      <c r="B13" s="10">
+        <v>1</v>
+      </c>
+      <c r="C13" s="11">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A14" s="9">
         <v>44954</v>
       </c>
-      <c r="B14" s="2">
+      <c r="B14" s="10">
         <v>2</v>
       </c>
-      <c r="C14" s="1">
+      <c r="C14" s="11">
         <v>10</v>
       </c>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A15" s="4">
+    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A15" s="9">
         <v>44955</v>
       </c>
-      <c r="B15" s="2">
+      <c r="B15" s="10">
         <v>2</v>
       </c>
-      <c r="C15" s="1">
+      <c r="C15" s="11">
         <v>10</v>
       </c>
     </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A16" s="4">
+    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A16" s="9">
         <v>44956</v>
       </c>
-      <c r="B16" s="2">
-        <v>1</v>
-      </c>
-      <c r="C16" s="1">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A17" s="4">
+      <c r="B16" s="10">
+        <v>1</v>
+      </c>
+      <c r="C16" s="11">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A17" s="9">
         <v>44957</v>
       </c>
-      <c r="B17" s="2">
+      <c r="B17" s="10">
         <v>0</v>
       </c>
-      <c r="C17" s="1">
+      <c r="C17" s="11">
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A18" s="7" t="s">
+    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A18" s="8" t="s">
         <v>0</v>
       </c>
       <c r="B18" s="6">
         <f>SUM(B2:B17)</f>
         <v>18</v>
       </c>
-      <c r="C18" s="5">
+      <c r="C18" s="7">
         <f>SUM(C2:C17)</f>
         <v>110</v>
       </c>
     </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A19" s="4"/>
     </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A20" s="4"/>
     </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A21" s="4"/>
     </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A22" s="4"/>
     </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A23" s="4"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{24D9EFBD-12C5-4D30-8EE6-418D0444DAEA}">
+  <dimension ref="A1:C19"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H10" sqref="H10"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="3" width="20.7109375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="B1" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="C1" s="7" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A2" s="9">
+        <v>44958</v>
+      </c>
+      <c r="B2" s="10">
+        <v>1</v>
+      </c>
+      <c r="C2" s="11">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A3" s="9"/>
+      <c r="B3" s="10"/>
+      <c r="C3" s="11"/>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A4" s="9"/>
+      <c r="B4" s="10"/>
+      <c r="C4" s="11"/>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A5" s="9"/>
+      <c r="B5" s="10"/>
+      <c r="C5" s="11"/>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A6" s="9"/>
+      <c r="B6" s="10"/>
+      <c r="C6" s="11"/>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A7" s="9"/>
+      <c r="B7" s="10"/>
+      <c r="C7" s="11"/>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A8" s="9"/>
+      <c r="B8" s="10"/>
+      <c r="C8" s="11"/>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A9" s="9"/>
+      <c r="B9" s="10"/>
+      <c r="C9" s="11"/>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A10" s="9"/>
+      <c r="B10" s="10"/>
+      <c r="C10" s="11"/>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A11" s="9"/>
+      <c r="B11" s="10"/>
+      <c r="C11" s="11"/>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A12" s="9"/>
+      <c r="B12" s="10"/>
+      <c r="C12" s="11"/>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A13" s="9"/>
+      <c r="B13" s="10"/>
+      <c r="C13" s="11"/>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A14" s="9"/>
+      <c r="B14" s="10"/>
+      <c r="C14" s="11"/>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A15" s="9"/>
+      <c r="B15" s="10"/>
+      <c r="C15" s="11"/>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A16" s="9"/>
+      <c r="B16" s="10"/>
+      <c r="C16" s="11"/>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A17" s="9"/>
+      <c r="B17" s="10"/>
+      <c r="C17" s="11"/>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A18" s="8" t="s">
+        <v>0</v>
+      </c>
+      <c r="B18" s="6">
+        <f>SUM(B2:B17)</f>
+        <v>1</v>
+      </c>
+      <c r="C18" s="7">
+        <f>SUM(C2:C17)</f>
+        <v>7</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A19" s="4"/>
+      <c r="B19" s="2"/>
+      <c r="C19" s="1"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
+</worksheet>
 </file>